--- a/GetCompanyDetailsFromRecruitNavi/01.Config/04.ProcessInstruction_Structured.xlsx
+++ b/GetCompanyDetailsFromRecruitNavi/01.Config/04.ProcessInstruction_Structured.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92aee0bfe262aabc/Documents/周平用プログラム/GetCompanyDetailsFromRecruitNavi/GetCompanyDetailsFromRecruitNavi_20210620/01.Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92aee0bfe262aabc/Documents/周平用プログラム/GetCompanyDetailsFromRecruitNavi/01.Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{96782984-787B-4678-B512-26EBB9378C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396348E8-603B-442F-93CF-0D6136884256}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{96782984-787B-4678-B512-26EBB9378C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32DD5D90-D223-48E1-8FD8-3A9DBFCCA216}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruction" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>Matches</t>
   </si>
@@ -57,12 +57,6 @@
     <t>Condition3</t>
   </si>
   <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>((?:旭川|伊達|石狩|盛岡|奥州|田村|南相馬|那須塩原|東村山|武蔵村山|羽村|十日町|上越|富山|野々市|大町|蒲郡|四日市|姫路|大和郡山|廿日市|下松|岩国|田川|大村)市|.+?郡(?:玉村|大町|.+?)[町村]|.+?市.+?区|.+?[市区町村])(.+)</t>
   </si>
   <si>
@@ -90,17 +84,41 @@
     <t>社,）,【,】,…,：,■,、,★,/</t>
   </si>
   <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
     <t>GetText</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>社名</t>
+  </si>
+  <si>
+    <t>業種</t>
+  </si>
+  <si>
+    <t>事業内容</t>
+  </si>
+  <si>
+    <t>設立</t>
+  </si>
+  <si>
+    <t>代表者</t>
+  </si>
+  <si>
+    <t>資本金</t>
+  </si>
+  <si>
+    <t>従業員数</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,16 +126,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383838"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,12 +156,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,21 +495,21 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -473,56 +518,56 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -531,12 +576,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>21</v>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
